--- a/data/trans_dic/P04D$notiene-Habitat-trans_dic.xlsx
+++ b/data/trans_dic/P04D$notiene-Habitat-trans_dic.xlsx
@@ -664,7 +664,7 @@
         <v>0.178409279566088</v>
       </c>
       <c r="K4" s="5" t="n">
-        <v>0.05256748688222811</v>
+        <v>0.05256748688222812</v>
       </c>
     </row>
     <row r="5">
@@ -675,31 +675,31 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.02765721913894266</v>
+        <v>0.02804413281579675</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.1564129533990357</v>
+        <v>0.1530743012506603</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.03264035885212829</v>
+        <v>0.03230072442654263</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>0.03052222076251105</v>
+        <v>0.02972731982420049</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>0.1424363287922329</v>
+        <v>0.1433024841496439</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>0.04380402241855023</v>
+        <v>0.04358164407070302</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>0.03254180142492828</v>
+        <v>0.03355197866099838</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>0.156421268487151</v>
+        <v>0.1594862403356229</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>0.04187803027492362</v>
+        <v>0.04251848056396195</v>
       </c>
     </row>
     <row r="6">
@@ -710,31 +710,31 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.05635258215342764</v>
+        <v>0.05859350474277795</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.2214637524148313</v>
+        <v>0.222169294103417</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.06834009534585862</v>
+        <v>0.06547030633786589</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>0.06157144673957102</v>
+        <v>0.06148992641314476</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>0.1994833959996985</v>
+        <v>0.1995516778293809</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>0.07198272737965504</v>
+        <v>0.07514042640184981</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>0.05387450251933577</v>
+        <v>0.05412023984456656</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>0.2001967799852354</v>
+        <v>0.2028393410589536</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>0.06380150292889515</v>
+        <v>0.06525942932640386</v>
       </c>
     </row>
     <row r="7">
@@ -764,7 +764,7 @@
         <v>0.138321501971419</v>
       </c>
       <c r="H7" s="5" t="n">
-        <v>0.09107072921435591</v>
+        <v>0.09107072921435592</v>
       </c>
       <c r="I7" s="5" t="n">
         <v>0.0304303278392828</v>
@@ -773,7 +773,7 @@
         <v>0.1429952868564809</v>
       </c>
       <c r="K7" s="5" t="n">
-        <v>0.0974484894687887</v>
+        <v>0.09744848946878872</v>
       </c>
     </row>
     <row r="8">
@@ -784,31 +784,31 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.02035932667917892</v>
+        <v>0.01961421667805624</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.1266552606728801</v>
+        <v>0.1254658160692591</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.08111669376042559</v>
+        <v>0.08476271623857461</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>0.02178929790664971</v>
+        <v>0.02066180745619634</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>0.1169102733872686</v>
+        <v>0.1175458530634244</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>0.07604940901268849</v>
+        <v>0.07604361023033433</v>
       </c>
       <c r="I8" s="5" t="n">
-        <v>0.02284650323156755</v>
+        <v>0.02257081965782445</v>
       </c>
       <c r="J8" s="5" t="n">
-        <v>0.1292186247621938</v>
+        <v>0.1275995081453603</v>
       </c>
       <c r="K8" s="5" t="n">
-        <v>0.08391073963687533</v>
+        <v>0.08520918984747664</v>
       </c>
     </row>
     <row r="9">
@@ -819,31 +819,31 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.04478221656441934</v>
+        <v>0.0443994168282011</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.1719968531981623</v>
+        <v>0.1740185684730172</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.1255993893437615</v>
+        <v>0.1291379722984572</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.04551730875519518</v>
+        <v>0.0432504284313741</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.1617523095288561</v>
+        <v>0.1606990946588571</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>0.1088828571985381</v>
+        <v>0.1088032762214144</v>
       </c>
       <c r="I9" s="5" t="n">
-        <v>0.04011583752657784</v>
+        <v>0.03842940067340642</v>
       </c>
       <c r="J9" s="5" t="n">
-        <v>0.1598654972920769</v>
+        <v>0.1586642263036761</v>
       </c>
       <c r="K9" s="5" t="n">
-        <v>0.1123188519813396</v>
+        <v>0.1153003429588964</v>
       </c>
     </row>
     <row r="10">
@@ -893,31 +893,31 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.05620150405542917</v>
+        <v>0.05623946992918391</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.1740425450253868</v>
+        <v>0.1760455638312799</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.1898758234830845</v>
+        <v>0.1890876878097883</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.03770613303360033</v>
+        <v>0.03982151876242407</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>0.1689599494699128</v>
+        <v>0.1669529601922138</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>0.2123911955849657</v>
+        <v>0.2130040781884478</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>0.05231721630948494</v>
+        <v>0.050825083723776</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>0.1790670118041518</v>
+        <v>0.1802874237490005</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>0.2077688002985647</v>
+        <v>0.2097395126478743</v>
       </c>
     </row>
     <row r="12">
@@ -928,31 +928,31 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.09843459905036453</v>
+        <v>0.09581934558540187</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.2371365216564112</v>
+        <v>0.2349484970842255</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.2564938786499574</v>
+        <v>0.2545843037569176</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>0.0712267984904594</v>
+        <v>0.07494680702082887</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>0.2260380097640294</v>
+        <v>0.2281825387303512</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>0.2696293201574071</v>
+        <v>0.2705812280063984</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>0.07920649244325877</v>
+        <v>0.07821929858646673</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>0.2200915162833816</v>
+        <v>0.2197993431359643</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>0.2508919572920056</v>
+        <v>0.2548666312691523</v>
       </c>
     </row>
     <row r="13">
@@ -982,7 +982,7 @@
         <v>0.09860146957238716</v>
       </c>
       <c r="H13" s="5" t="n">
-        <v>0.1095285599450436</v>
+        <v>0.1095285599450437</v>
       </c>
       <c r="I13" s="5" t="n">
         <v>0.04097777950893755</v>
@@ -1002,31 +1002,31 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.019171026650498</v>
+        <v>0.0193894911641952</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.08705383131632952</v>
+        <v>0.08812695028780136</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.09679954911165407</v>
+        <v>0.09736152407253713</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.04008388599775141</v>
+        <v>0.03944601191871206</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>0.08000451597130893</v>
+        <v>0.07999743308460787</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>0.09431954844702688</v>
+        <v>0.09411822509142745</v>
       </c>
       <c r="I14" s="5" t="n">
-        <v>0.03270702100490883</v>
+        <v>0.03184813543762256</v>
       </c>
       <c r="J14" s="5" t="n">
-        <v>0.09047488864728334</v>
+        <v>0.09026289804810157</v>
       </c>
       <c r="K14" s="5" t="n">
-        <v>0.1013063645832359</v>
+        <v>0.1005399844929285</v>
       </c>
     </row>
     <row r="15">
@@ -1037,31 +1037,31 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.04121376140344311</v>
+        <v>0.04155425591397369</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.1300696904351026</v>
+        <v>0.1311547634812261</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.1436465267152309</v>
+        <v>0.1445424228499541</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0.06829227827508794</v>
+        <v>0.06632370651853743</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>0.1201550103983706</v>
+        <v>0.1193341469794605</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>0.1277478832944055</v>
+        <v>0.1277925609046748</v>
       </c>
       <c r="I15" s="5" t="n">
-        <v>0.05008157148431173</v>
+        <v>0.0507513932442159</v>
       </c>
       <c r="J15" s="5" t="n">
-        <v>0.1177495066284366</v>
+        <v>0.1189662621531502</v>
       </c>
       <c r="K15" s="5" t="n">
-        <v>0.1280422253173811</v>
+        <v>0.1288112132158246</v>
       </c>
     </row>
     <row r="16">
@@ -1091,7 +1091,7 @@
         <v>0.1452357703090898</v>
       </c>
       <c r="H16" s="5" t="n">
-        <v>0.1223639378106835</v>
+        <v>0.1223639378106836</v>
       </c>
       <c r="I16" s="5" t="n">
         <v>0.04326075731441438</v>
@@ -1111,31 +1111,31 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.03384566356550287</v>
+        <v>0.03517308860647481</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.1437744804225518</v>
+        <v>0.1451373952279078</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.1115654676099222</v>
+        <v>0.1108409782948853</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>0.03721902064283099</v>
+        <v>0.03864264193462147</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>0.1337995162809068</v>
+        <v>0.1333751842801375</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>0.1130635060993891</v>
+        <v>0.1132197684233264</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>0.03810043427001802</v>
+        <v>0.03827860488532456</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>0.142546954119912</v>
+        <v>0.1421422505780028</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>0.1145455784889667</v>
+        <v>0.1161558971256658</v>
       </c>
     </row>
     <row r="18">
@@ -1146,31 +1146,31 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.04904729460277674</v>
+        <v>0.05049322007376019</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.1716566963735141</v>
+        <v>0.1705318568377573</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.1375324888667868</v>
+        <v>0.1359993340278883</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>0.05217069665148352</v>
+        <v>0.05265405878929837</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>0.1577984943530133</v>
+        <v>0.1564832178878363</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>0.1322159657464407</v>
+        <v>0.1329285740516338</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>0.04819640019110853</v>
+        <v>0.04829319777385219</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>0.160674452504115</v>
+        <v>0.1598248832254253</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>0.1310330881299298</v>
+        <v>0.1317008111128416</v>
       </c>
     </row>
     <row r="19">
@@ -1399,31 +1399,31 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>19380</v>
+        <v>19651</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>105547</v>
+        <v>103295</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>22474</v>
+        <v>22240</v>
       </c>
       <c r="F6" s="6" t="n">
-        <v>21241</v>
+        <v>20688</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>95837</v>
+        <v>96420</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>32131</v>
+        <v>31968</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>45449</v>
+        <v>46860</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>210799</v>
+        <v>214930</v>
       </c>
       <c r="K6" s="6" t="n">
-        <v>59553</v>
+        <v>60463</v>
       </c>
     </row>
     <row r="7">
@@ -1434,31 +1434,31 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>39487</v>
+        <v>41057</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>149444</v>
+        <v>149920</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>47055</v>
+        <v>45079</v>
       </c>
       <c r="F7" s="6" t="n">
-        <v>42849</v>
+        <v>42792</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>134220</v>
+        <v>134266</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>52800</v>
+        <v>55116</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>75243</v>
+        <v>75586</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>269793</v>
+        <v>273354</v>
       </c>
       <c r="K7" s="6" t="n">
-        <v>90729</v>
+        <v>92802</v>
       </c>
     </row>
     <row r="8">
@@ -1543,31 +1543,31 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>20656</v>
+        <v>19900</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>129496</v>
+        <v>128280</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>84991</v>
+        <v>88811</v>
       </c>
       <c r="F10" s="6" t="n">
-        <v>22445</v>
+        <v>21284</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>121927</v>
+        <v>122590</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>81220</v>
+        <v>81214</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>46713</v>
+        <v>46150</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>266881</v>
+        <v>263537</v>
       </c>
       <c r="K10" s="6" t="n">
-        <v>177534</v>
+        <v>180281</v>
       </c>
     </row>
     <row r="11">
@@ -1578,31 +1578,31 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>45434</v>
+        <v>45046</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>175855</v>
+        <v>177922</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>131598</v>
+        <v>135306</v>
       </c>
       <c r="F11" s="6" t="n">
-        <v>46887</v>
+        <v>44552</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>168694</v>
+        <v>167595</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>116286</v>
+        <v>116201</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>82023</v>
+        <v>78575</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>330177</v>
+        <v>327696</v>
       </c>
       <c r="K11" s="6" t="n">
-        <v>237639</v>
+        <v>243947</v>
       </c>
     </row>
     <row r="12">
@@ -1687,31 +1687,31 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>42526</v>
+        <v>42555</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>132194</v>
+        <v>133716</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>151474</v>
+        <v>150846</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>29267</v>
+        <v>30909</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>132635</v>
+        <v>131060</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>172069</v>
+        <v>172566</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>80195</v>
+        <v>77908</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>276580</v>
+        <v>278465</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>334073</v>
+        <v>337242</v>
       </c>
     </row>
     <row r="15">
@@ -1722,31 +1722,31 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>74483</v>
+        <v>72504</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>180118</v>
+        <v>178456</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>204619</v>
+        <v>203096</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>55285</v>
+        <v>58172</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>177442</v>
+        <v>179126</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>218441</v>
+        <v>219212</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>121412</v>
+        <v>119899</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>339945</v>
+        <v>339494</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>403411</v>
+        <v>409802</v>
       </c>
     </row>
     <row r="16">
@@ -1831,31 +1831,31 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>18169</v>
+        <v>18376</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>81619</v>
+        <v>82625</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>95630</v>
+        <v>96185</v>
       </c>
       <c r="F18" s="6" t="n">
-        <v>42164</v>
+        <v>41493</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>83507</v>
+        <v>83500</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>105260</v>
+        <v>105035</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>65402</v>
+        <v>63685</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>179262</v>
+        <v>178842</v>
       </c>
       <c r="K18" s="6" t="n">
-        <v>213140</v>
+        <v>211527</v>
       </c>
     </row>
     <row r="19">
@@ -1866,31 +1866,31 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>39060</v>
+        <v>39383</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>121949</v>
+        <v>122966</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>141911</v>
+        <v>142796</v>
       </c>
       <c r="F19" s="6" t="n">
-        <v>71837</v>
+        <v>69766</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>125415</v>
+        <v>124558</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>142565</v>
+        <v>142615</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>100145</v>
+        <v>101485</v>
       </c>
       <c r="J19" s="6" t="n">
-        <v>233303</v>
+        <v>235713</v>
       </c>
       <c r="K19" s="6" t="n">
-        <v>269390</v>
+        <v>271007</v>
       </c>
     </row>
     <row r="20">
@@ -1975,31 +1975,31 @@
         </is>
       </c>
       <c r="C22" s="6" t="n">
-        <v>115741</v>
+        <v>120281</v>
       </c>
       <c r="D22" s="6" t="n">
-        <v>488021</v>
+        <v>492647</v>
       </c>
       <c r="E22" s="6" t="n">
-        <v>392931</v>
+        <v>390380</v>
       </c>
       <c r="F22" s="6" t="n">
-        <v>132280</v>
+        <v>137340</v>
       </c>
       <c r="G22" s="6" t="n">
-        <v>474258</v>
+        <v>472754</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>421460</v>
+        <v>422043</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>265704</v>
+        <v>266947</v>
       </c>
       <c r="J22" s="6" t="n">
-        <v>989118</v>
+        <v>986310</v>
       </c>
       <c r="K22" s="6" t="n">
-        <v>830412</v>
+        <v>842087</v>
       </c>
     </row>
     <row r="23">
@@ -2010,31 +2010,31 @@
         </is>
       </c>
       <c r="C23" s="6" t="n">
-        <v>167726</v>
+        <v>172671</v>
       </c>
       <c r="D23" s="6" t="n">
-        <v>582663</v>
+        <v>578845</v>
       </c>
       <c r="E23" s="6" t="n">
-        <v>484387</v>
+        <v>478987</v>
       </c>
       <c r="F23" s="6" t="n">
-        <v>185420</v>
+        <v>187138</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>559323</v>
+        <v>554661</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>492854</v>
+        <v>495510</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>336111</v>
+        <v>336786</v>
       </c>
       <c r="J23" s="6" t="n">
-        <v>1114903</v>
+        <v>1109008</v>
       </c>
       <c r="K23" s="6" t="n">
-        <v>949941</v>
+        <v>954781</v>
       </c>
     </row>
     <row r="24">
